--- a/[Result]paper/FF_Table.xlsx
+++ b/[Result]paper/FF_Table.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\[논문] 태양광 공급곡선\SupplyCurvePV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\[논문] 태양광 공급곡선\SupplyCurvePV\[Result]paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B64F0EC-3B0F-40B9-84B7-7DCC3DB08289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C6207-8AD8-4452-83B1-C1192DBD6021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FA8130DD-6437-4B85-AFA9-1178106A7E1C}"/>
+    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{FA8130DD-6437-4B85-AFA9-1178106A7E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="FF_Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -115,8 +128,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -653,7 +667,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,8 +794,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,8 +829,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -842,6 +868,7 @@
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="백분율" xfId="42" builtinId="5"/>
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
@@ -1187,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17242A-D17D-487E-AA0E-F7FE3E7D477E}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1249,25 +1276,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>10.722260841620599</v>
+        <v>1.54963629359896</v>
       </c>
       <c r="E2" s="2">
-        <v>4.7542504571745798</v>
+        <v>0.68710873258177996</v>
       </c>
       <c r="F2" s="2">
-        <v>2808.66028876152</v>
+        <v>192.568697190287</v>
       </c>
       <c r="G2" s="2">
-        <v>261.94664821612503</v>
+        <v>124.267028325114</v>
       </c>
       <c r="H2" s="2">
-        <v>590.76826390645999</v>
+        <v>280.25942337644102</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="3" t="s">
@@ -1295,25 +1322,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>10.7222974026652</v>
+        <v>4.0368472256751797</v>
       </c>
       <c r="E3" s="2">
-        <v>4.7542666683417396</v>
+        <v>1.7899380598643699</v>
       </c>
       <c r="F3" s="2">
-        <v>1609.3549328878</v>
+        <v>491.19792629948302</v>
       </c>
       <c r="G3" s="2">
-        <v>150.09422630711299</v>
+        <v>121.67860184932501</v>
       </c>
       <c r="H3" s="2">
-        <v>338.50750182028202</v>
+        <v>274.421745262348</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="3" t="s">
@@ -1341,25 +1368,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>1.54963629359896</v>
+        <v>10.722260841620599</v>
       </c>
       <c r="E4" s="2">
-        <v>0.68710873258177996</v>
+        <v>4.7542504571745798</v>
       </c>
       <c r="F4" s="2">
-        <v>192.568697190287</v>
+        <v>2808.66028876152</v>
       </c>
       <c r="G4" s="2">
-        <v>124.267028325114</v>
+        <v>261.94664821612503</v>
       </c>
       <c r="H4" s="2">
-        <v>280.25942337644102</v>
+        <v>590.76826390645999</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
@@ -1413,25 +1440,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>4.0368472256751797</v>
+        <v>10.7222974026652</v>
       </c>
       <c r="E5" s="2">
-        <v>1.7899380598643699</v>
+        <v>4.7542666683417396</v>
       </c>
       <c r="F5" s="2">
-        <v>491.19792629948302</v>
+        <v>1609.3549328878</v>
       </c>
       <c r="G5" s="2">
-        <v>121.67860184932501</v>
+        <v>150.09422630711299</v>
       </c>
       <c r="H5" s="2">
-        <v>274.421745262348</v>
+        <v>338.50750182028202</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>18</v>
@@ -1580,6 +1607,56 @@
       </c>
       <c r="H7" s="2">
         <v>520.26262368332596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G14" s="11">
+        <f>(G2-G3)/G2</f>
+        <v>2.0829551576762691E-2</v>
+      </c>
+      <c r="H14" s="11">
+        <f>(H2-H3)/H2</f>
+        <v>2.0829551576761526E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G16" s="11">
+        <f>(G4-G5)/G4</f>
+        <v>0.4270045929991273</v>
+      </c>
+      <c r="H16" s="11">
+        <f>(H4-H5)/H4</f>
+        <v>0.42700459299912563</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="12">
+        <f>(4.04-1.55)/1.55</f>
+        <v>1.6064516129032258</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f>4.04-1.55</f>
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f>1.55/10.9</f>
+        <v>0.14220183486238533</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="10">
+        <f>(15-10.7)/10.7</f>
+        <v>0.40186915887850477</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <f>(15-10.7)</f>
+        <v>4.3000000000000007</v>
       </c>
     </row>
   </sheetData>
